--- a/scripts/modules/lineage/ColumnMapping/KNVA_ColumnMapping.xlsx
+++ b/scripts/modules/lineage/ColumnMapping/KNVA_ColumnMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Dasam\Desktop\github\Purview\scripts\modules\lineage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Dasam\Desktop\github\Purview\scripts\modules\lineage\ColumnMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B218527F-E23C-470A-B3F6-B765D7D64928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56972200-F432-442B-8B39-1BC0AE0A91AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateLineage" sheetId="1" r:id="rId1"/>
@@ -547,9 +547,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -606,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
